--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1472251.299702953</v>
+        <v>1469403.110076117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10345076.29536272</v>
+        <v>10345076.29536273</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.86094179307565</v>
+        <v>13.86094179307566</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>22.82047985378971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.240236561098584</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.507868067057421</v>
+        <v>13.74810462815231</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -744,25 +744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>20.10027865521626</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="J3" t="n">
-        <v>22.82047985378971</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.2726179046288</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.82047985378971</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>22.82047985378971</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.827660750589168</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>32.68636186295921</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>49.79500702712463</v>
+        <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>31.0598968356705</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44799022605971</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>12.84193026251983</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>61.03721739111361</v>
       </c>
       <c r="F8" t="n">
-        <v>81.30196747731281</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1126601249237</v>
+        <v>13.38870434448781</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>55.24647503519215</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V9" t="n">
-        <v>89.49227226221132</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>359.9014886886322</v>
+        <v>25.87859906451831</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492309</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2118382056128</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>32.69569941357507</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>144.7296744617549</v>
+        <v>410.3099034802228</v>
       </c>
       <c r="H14" t="n">
-        <v>288.3419405557221</v>
+        <v>288.3419405557222</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.98965543945181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.24586401568261</v>
+        <v>95.24586401568268</v>
       </c>
       <c r="T14" t="n">
-        <v>201.239718576303</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9462261850435</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>141.6852771528786</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>104.0667854953171</v>
+        <v>35.92011906066881</v>
       </c>
       <c r="T16" t="n">
-        <v>218.3763319019425</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.196868622112</v>
+        <v>286.1968686221121</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.63566166346872</v>
+        <v>63.6356616634688</v>
       </c>
       <c r="T17" t="n">
         <v>169.6295162240891</v>
@@ -1901,16 +1901,16 @@
         <v>219.3360238328296</v>
       </c>
       <c r="V17" t="n">
-        <v>118.4216184097651</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
         <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>160.4004606180983</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2005,13 +2005,13 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>46.62889994693796</v>
       </c>
       <c r="E19" t="n">
-        <v>44.44738957529746</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.1411635426336</v>
@@ -2020,7 +2020,7 @@
         <v>110.704770451482</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753516</v>
+        <v>56.48898768753523</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.98202365203528</v>
+        <v>44.98202365203535</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3760410507332</v>
+        <v>153.3760410507333</v>
       </c>
       <c r="T19" t="n">
         <v>186.7661295497286</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.6997011280088</v>
+        <v>378.6997011280089</v>
       </c>
       <c r="H20" t="n">
-        <v>256.7317382035082</v>
+        <v>256.7317382035083</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.63566166346877</v>
       </c>
       <c r="T20" t="n">
-        <v>169.629516224089</v>
+        <v>169.6295162240891</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3360238328295</v>
+        <v>41.61558612467324</v>
       </c>
       <c r="V20" t="n">
-        <v>182.0572800732346</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H21" t="n">
-        <v>86.43532762764653</v>
+        <v>86.43532762764654</v>
       </c>
       <c r="I21" t="n">
-        <v>7.546487457097228</v>
+        <v>7.546487457097243</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H22" t="n">
-        <v>85.31042338446061</v>
+        <v>110.704770451482</v>
       </c>
       <c r="I22" t="n">
-        <v>56.4889876875351</v>
+        <v>56.4889876875352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.98202365203532</v>
       </c>
       <c r="S22" t="n">
         <v>153.3760410507332</v>
       </c>
       <c r="T22" t="n">
-        <v>186.7661295497285</v>
+        <v>186.7661295497286</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5866662698981</v>
+        <v>254.5866662698982</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>184.5364252653177</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2381,10 +2381,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262547</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221513</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545739</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684685</v>
       </c>
       <c r="E29" t="n">
         <v>350.3201677200479</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
@@ -3010,10 +3010,10 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843757</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998809</v>
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
         <v>186.4872700401421</v>
@@ -3250,7 +3250,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998809</v>
@@ -3430,7 +3430,7 @@
         <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943533</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707174</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139452918</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.62773630384</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221468</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659989</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453021</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221468</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3961,10 +3961,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663652</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707155</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453021</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221586</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="C2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="D2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="E2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="F2" t="n">
-        <v>78.77291556791756</v>
+        <v>15.82658969444006</v>
       </c>
       <c r="G2" t="n">
-        <v>64.77196426178054</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="H2" t="n">
-        <v>64.77196426178054</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="I2" t="n">
-        <v>64.77196426178054</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="J2" t="n">
-        <v>64.77196426178054</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="K2" t="n">
-        <v>41.7209745104778</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="L2" t="n">
-        <v>33.39750323664084</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="M2" t="n">
-        <v>55.98977829189266</v>
+        <v>24.41791344355291</v>
       </c>
       <c r="N2" t="n">
-        <v>78.58205334714447</v>
+        <v>47.0101884988028</v>
       </c>
       <c r="O2" t="n">
-        <v>91.28191941515884</v>
+        <v>59.71005456681532</v>
       </c>
       <c r="P2" t="n">
-        <v>85.71841631712104</v>
+        <v>45.8230801949443</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="R2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="S2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="T2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="U2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="V2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="W2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="X2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.71841631712104</v>
+        <v>22.77209044364353</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.28331289175622</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="C3" t="n">
-        <v>38.28331289175622</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="D3" t="n">
-        <v>38.28331289175622</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="E3" t="n">
-        <v>38.28331289175622</v>
+        <v>70.97860764220535</v>
       </c>
       <c r="F3" t="n">
-        <v>38.28331289175622</v>
+        <v>70.97860764220535</v>
       </c>
       <c r="G3" t="n">
-        <v>38.28331289175622</v>
+        <v>47.92761789090457</v>
       </c>
       <c r="H3" t="n">
-        <v>38.28331289175622</v>
+        <v>24.8766281396038</v>
       </c>
       <c r="I3" t="n">
-        <v>38.28331289175622</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="J3" t="n">
-        <v>15.23232314045348</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="K3" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="L3" t="n">
-        <v>10.30379707090132</v>
+        <v>23.50509424940141</v>
       </c>
       <c r="M3" t="n">
-        <v>32.89607212615313</v>
+        <v>46.09736930465129</v>
       </c>
       <c r="N3" t="n">
-        <v>55.48834718140494</v>
+        <v>68.68964435990118</v>
       </c>
       <c r="O3" t="n">
-        <v>78.08062223665675</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="P3" t="n">
-        <v>91.28191941515884</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.2309296638561</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="R3" t="n">
-        <v>45.17993991255337</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="S3" t="n">
-        <v>45.17993991255337</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="T3" t="n">
-        <v>45.17993991255337</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="U3" t="n">
-        <v>45.17993991255337</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="V3" t="n">
-        <v>45.17993991255337</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="W3" t="n">
-        <v>38.28331289175622</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="X3" t="n">
-        <v>38.28331289175622</v>
+        <v>91.28191941515107</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.28331289175622</v>
+        <v>91.28191941515107</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="C4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="D4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="E4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="F4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="G4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="H4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="J4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="K4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="L4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="M4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="N4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="O4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="P4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="R4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="S4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="T4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="U4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="V4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="W4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="X4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.825638388303177</v>
+        <v>1.825638388303021</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="C5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="D5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="E5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="F5" t="n">
-        <v>71.6016318784047</v>
+        <v>17.82937900436996</v>
       </c>
       <c r="G5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
         <v>3.98360056216997</v>
@@ -4583,34 +4583,34 @@
         <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>154.9161459087924</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.6181590127069</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="R5" t="n">
-        <v>104.6181590127069</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="S5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="T5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="U5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="X5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.6181590127069</v>
+        <v>24.77487975357343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E6" t="n">
-        <v>151.23507643877</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370895426845</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>100.9370895426845</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H6" t="n">
-        <v>100.9370895426845</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4656,10 +4656,10 @@
         <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4671,25 +4671,25 @@
         <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="T6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="U6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="V6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="W6" t="n">
-        <v>167.8492079802444</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.3649920389078</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="C8" t="n">
-        <v>336.3649920389078</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="D8" t="n">
-        <v>336.3649920389078</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="E8" t="n">
-        <v>336.3649920389078</v>
+        <v>161.4661258610924</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2417925668747</v>
+        <v>154.5206251118889</v>
       </c>
       <c r="G8" t="n">
         <v>140.996681329578</v>
@@ -4805,10 +4805,10 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4838,16 +4838,16 @@
         <v>336.3649920389078</v>
       </c>
       <c r="V8" t="n">
-        <v>336.3649920389078</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="W8" t="n">
-        <v>336.3649920389078</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="X8" t="n">
-        <v>336.3649920389078</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="Y8" t="n">
-        <v>336.3649920389078</v>
+        <v>223.1198808016112</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348.7043465218837</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="C9" t="n">
-        <v>348.7043465218837</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="D9" t="n">
-        <v>235.4592352845871</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="E9" t="n">
-        <v>122.2141240472905</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993892</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>73.8809971161856</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993892</v>
@@ -4884,19 +4884,19 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>65.44790611672062</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>441.223936157822</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996946</v>
@@ -4905,28 +4905,28 @@
         <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="T9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="U9" t="n">
-        <v>439.100581130178</v>
+        <v>242.93062859105</v>
       </c>
       <c r="V9" t="n">
-        <v>348.7043465218837</v>
+        <v>242.93062859105</v>
       </c>
       <c r="W9" t="n">
-        <v>348.7043465218837</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="X9" t="n">
-        <v>348.7043465218837</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="Y9" t="n">
-        <v>348.7043465218837</v>
+        <v>129.6855173537534</v>
       </c>
     </row>
     <row r="10">
@@ -4963,10 +4963,10 @@
         <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="M10" t="n">
         <v>8.969012809993892</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2251.634947019675</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C11" t="n">
-        <v>1882.672430079263</v>
+        <v>1247.691971481855</v>
       </c>
       <c r="D11" t="n">
-        <v>1524.406731472513</v>
+        <v>889.4262728751041</v>
       </c>
       <c r="E11" t="n">
-        <v>1138.618478874269</v>
+        <v>503.6380202768599</v>
       </c>
       <c r="F11" t="n">
-        <v>727.6325740846611</v>
+        <v>92.65211548725244</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5039,22 +5039,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5069,22 +5069,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265601</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995487</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X11" t="n">
-        <v>2641.774278995487</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y11" t="n">
-        <v>2251.634947019675</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>657.6489837069646</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>657.6489837069646</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>507.5323442946288</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>359.6192507122358</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218343</v>
@@ -5200,49 +5200,49 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760408</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251684</v>
+        <v>872.3234075408155</v>
       </c>
       <c r="X13" t="n">
-        <v>362.817515227151</v>
+        <v>839.2974485372043</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836209</v>
+        <v>839.2974485372043</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1684.615008185641</v>
+        <v>2329.314933517564</v>
       </c>
       <c r="C14" t="n">
-        <v>1315.65249124523</v>
+        <v>1960.352416577152</v>
       </c>
       <c r="D14" t="n">
-        <v>1315.65249124523</v>
+        <v>1602.086717970401</v>
       </c>
       <c r="E14" t="n">
-        <v>929.8642386469857</v>
+        <v>1216.298465372157</v>
       </c>
       <c r="F14" t="n">
-        <v>518.8783338573782</v>
+        <v>805.3125605825496</v>
       </c>
       <c r="G14" t="n">
-        <v>372.6867434919691</v>
+        <v>390.8581126227286</v>
       </c>
       <c r="H14" t="n">
-        <v>81.43225808214879</v>
+        <v>99.60362721290821</v>
       </c>
       <c r="I14" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J14" t="n">
         <v>321.7197547946562</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049082</v>
+        <v>732.5869425049091</v>
       </c>
       <c r="L14" t="n">
         <v>1279.20578207939</v>
@@ -5291,10 +5291,10 @@
         <v>2573.950088109354</v>
       </c>
       <c r="O14" t="n">
-        <v>3178.976860646705</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P14" t="n">
-        <v>3660.852212359282</v>
+        <v>3660.852212359283</v>
       </c>
       <c r="Q14" t="n">
         <v>3974.54778670733</v>
@@ -5303,25 +5303,25 @@
         <v>4071.61290410744</v>
       </c>
       <c r="S14" t="n">
-        <v>3975.404960657255</v>
+        <v>3975.404960657256</v>
       </c>
       <c r="T14" t="n">
-        <v>3772.132517650889</v>
+        <v>3975.404960657256</v>
       </c>
       <c r="U14" t="n">
-        <v>3518.65148110034</v>
+        <v>3975.404960657256</v>
       </c>
       <c r="V14" t="n">
-        <v>3187.588593756769</v>
+        <v>3832.288519088691</v>
       </c>
       <c r="W14" t="n">
-        <v>2834.819938486655</v>
+        <v>3479.519863818577</v>
       </c>
       <c r="X14" t="n">
-        <v>2461.354180225575</v>
+        <v>3106.054105557497</v>
       </c>
       <c r="Y14" t="n">
-        <v>2071.214848249763</v>
+        <v>2715.914773581685</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.3633844303749</v>
       </c>
       <c r="H15" t="n">
-        <v>89.05497268527732</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I15" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J15" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="K15" t="n">
-        <v>81.43225808214879</v>
+        <v>372.0282999172187</v>
       </c>
       <c r="L15" t="n">
-        <v>518.4970392635175</v>
+        <v>809.0930810985874</v>
       </c>
       <c r="M15" t="n">
-        <v>1047.887892060523</v>
+        <v>1338.483933895593</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.698790395166</v>
+        <v>1696.9713008567</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.766989968045</v>
+        <v>2185.039500429579</v>
       </c>
       <c r="P15" t="n">
-        <v>2466.151682734554</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="Q15" t="n">
         <v>2557.424193196089</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.6632003199098</v>
+        <v>711.6632003199101</v>
       </c>
       <c r="C16" t="n">
-        <v>542.7270173920029</v>
+        <v>542.7270173920032</v>
       </c>
       <c r="D16" t="n">
         <v>392.6103779796674</v>
@@ -5425,25 +5425,25 @@
         <v>392.6103779796674</v>
       </c>
       <c r="G16" t="n">
-        <v>225.1847558636598</v>
+        <v>225.1847558636599</v>
       </c>
       <c r="H16" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I16" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J16" t="n">
         <v>145.7639349251848</v>
       </c>
       <c r="K16" t="n">
-        <v>381.3174786021265</v>
+        <v>381.3174786021264</v>
       </c>
       <c r="L16" t="n">
-        <v>738.2713508649247</v>
+        <v>738.2713508649244</v>
       </c>
       <c r="M16" t="n">
-        <v>1125.018283634586</v>
+        <v>1125.018283634585</v>
       </c>
       <c r="N16" t="n">
         <v>1508.003855186735</v>
@@ -5452,34 +5452,34 @@
         <v>1845.736723011684</v>
       </c>
       <c r="P16" t="n">
-        <v>2111.204854362884</v>
+        <v>2111.204854362885</v>
       </c>
       <c r="Q16" t="n">
-        <v>2211.566148063616</v>
+        <v>2211.566148063617</v>
       </c>
       <c r="R16" t="n">
-        <v>2211.566148063616</v>
+        <v>2211.566148063617</v>
       </c>
       <c r="S16" t="n">
-        <v>2106.448182916831</v>
+        <v>2175.283199517487</v>
       </c>
       <c r="T16" t="n">
-        <v>1885.866029480525</v>
+        <v>2175.283199517487</v>
       </c>
       <c r="U16" t="n">
-        <v>1596.778283397583</v>
+        <v>1886.195453434545</v>
       </c>
       <c r="V16" t="n">
-        <v>1342.093795191697</v>
+        <v>1631.510965228658</v>
       </c>
       <c r="W16" t="n">
         <v>1342.093795191697</v>
       </c>
       <c r="X16" t="n">
-        <v>1114.104244293679</v>
+        <v>1114.10424429368</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.3116651501495</v>
+        <v>893.3116651501498</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.566580433992</v>
+        <v>2119.566580433993</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.533560819049</v>
+        <v>1782.53356081905</v>
       </c>
       <c r="D17" t="n">
-        <v>1456.197359537767</v>
+        <v>1456.197359537768</v>
       </c>
       <c r="E17" t="n">
         <v>1102.338604264992</v>
       </c>
       <c r="F17" t="n">
-        <v>723.2821968008529</v>
+        <v>723.2821968008531</v>
       </c>
       <c r="G17" t="n">
-        <v>340.7572461665005</v>
+        <v>340.7572461665006</v>
       </c>
       <c r="H17" t="n">
         <v>81.43225808214881</v>
@@ -5513,13 +5513,13 @@
         <v>81.43225808214881</v>
       </c>
       <c r="J17" t="n">
-        <v>321.7197547946562</v>
+        <v>321.7197547946557</v>
       </c>
       <c r="K17" t="n">
-        <v>732.5869425049091</v>
+        <v>732.5869425049079</v>
       </c>
       <c r="L17" t="n">
-        <v>1279.205782079391</v>
+        <v>1279.20578207939</v>
       </c>
       <c r="M17" t="n">
         <v>1919.094000724846</v>
@@ -5528,10 +5528,10 @@
         <v>2573.950088109354</v>
       </c>
       <c r="O17" t="n">
-        <v>3178.976860646706</v>
+        <v>3178.976860646705</v>
       </c>
       <c r="P17" t="n">
-        <v>3660.852212359283</v>
+        <v>3660.852212359282</v>
       </c>
       <c r="Q17" t="n">
         <v>3974.54778670733</v>
@@ -5543,16 +5543,16 @@
         <v>4007.334457982724</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.991512301826</v>
+        <v>3835.991512301825</v>
       </c>
       <c r="U17" t="n">
         <v>3614.439973076745</v>
       </c>
       <c r="V17" t="n">
-        <v>3494.822176703246</v>
+        <v>3315.306583058642</v>
       </c>
       <c r="W17" t="n">
-        <v>3173.9830187586</v>
+        <v>2994.467425113997</v>
       </c>
       <c r="X17" t="n">
         <v>2832.446757822989</v>
@@ -5601,13 +5601,13 @@
         <v>933.3888210494157</v>
       </c>
       <c r="M18" t="n">
-        <v>1139.160402522057</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N18" t="n">
-        <v>1696.9713008567</v>
+        <v>2020.590572181064</v>
       </c>
       <c r="O18" t="n">
-        <v>2185.039500429579</v>
+        <v>2508.658771753943</v>
       </c>
       <c r="P18" t="n">
         <v>2557.424193196089</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.861597819601</v>
+        <v>800.8615978195987</v>
       </c>
       <c r="C19" t="n">
-        <v>663.8549122171628</v>
+        <v>663.8549122171604</v>
       </c>
       <c r="D19" t="n">
-        <v>545.6677701302957</v>
+        <v>616.7550132808594</v>
       </c>
       <c r="E19" t="n">
-        <v>500.7714170239346</v>
+        <v>500.7714170239349</v>
       </c>
       <c r="F19" t="n">
-        <v>385.8109668514929</v>
+        <v>385.8109668514932</v>
       </c>
       <c r="G19" t="n">
-        <v>250.3148420609539</v>
+        <v>250.3148420609541</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4918416049115</v>
+        <v>138.4918416049117</v>
       </c>
       <c r="I19" t="n">
         <v>81.43225808214881</v>
@@ -5674,10 +5674,10 @@
         <v>177.0580352538765</v>
       </c>
       <c r="K19" t="n">
-        <v>443.90567925951</v>
+        <v>443.9056792595098</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518509999</v>
+        <v>832.1536518509997</v>
       </c>
       <c r="M19" t="n">
         <v>1250.194684949352</v>
@@ -5689,34 +5689,34 @@
         <v>2033.501324983834</v>
       </c>
       <c r="P19" t="n">
-        <v>2330.263556663727</v>
+        <v>2330.263556663726</v>
       </c>
       <c r="Q19" t="n">
         <v>2461.91895069315</v>
       </c>
       <c r="R19" t="n">
-        <v>2416.482563165842</v>
+        <v>2416.482563165841</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.557269175202</v>
+        <v>2261.557269175201</v>
       </c>
       <c r="T19" t="n">
-        <v>2072.904613064365</v>
+        <v>2072.904613064364</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.746364306892</v>
+        <v>1815.746364306891</v>
       </c>
       <c r="V19" t="n">
-        <v>1592.991373426474</v>
+        <v>1592.991373426473</v>
       </c>
       <c r="W19" t="n">
-        <v>1335.503700714982</v>
+        <v>1335.503700714981</v>
       </c>
       <c r="X19" t="n">
-        <v>1139.443647142434</v>
+        <v>1139.443647142431</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.5805653243721</v>
+        <v>950.5805653243699</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1102.338604264992</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008528</v>
+        <v>723.2821968008529</v>
       </c>
       <c r="G20" t="n">
-        <v>340.7572461665005</v>
+        <v>340.7572461665006</v>
       </c>
       <c r="H20" t="n">
         <v>81.43225808214881</v>
@@ -5750,16 +5750,16 @@
         <v>81.43225808214881</v>
       </c>
       <c r="J20" t="n">
-        <v>321.7197547946558</v>
+        <v>321.7197547946562</v>
       </c>
       <c r="K20" t="n">
-        <v>732.5869425049082</v>
+        <v>732.5869425049091</v>
       </c>
       <c r="L20" t="n">
         <v>1279.20578207939</v>
       </c>
       <c r="M20" t="n">
-        <v>1919.094000724845</v>
+        <v>1919.094000724846</v>
       </c>
       <c r="N20" t="n">
         <v>2573.950088109354</v>
@@ -5777,13 +5777,13 @@
         <v>4071.61290410744</v>
       </c>
       <c r="S20" t="n">
-        <v>4071.61290410744</v>
+        <v>4007.334457982724</v>
       </c>
       <c r="T20" t="n">
-        <v>3900.269958426542</v>
+        <v>3835.991512301826</v>
       </c>
       <c r="U20" t="n">
-        <v>3678.718419201462</v>
+        <v>3793.955566721348</v>
       </c>
       <c r="V20" t="n">
         <v>3494.822176703246</v>
@@ -5814,34 +5814,34 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9303822454021</v>
+        <v>458.9303822454023</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3958242722871</v>
+        <v>312.3958242722872</v>
       </c>
       <c r="G21" t="n">
-        <v>176.3633844303748</v>
+        <v>176.3633844303749</v>
       </c>
       <c r="H21" t="n">
-        <v>89.05497268527732</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I21" t="n">
         <v>81.43225808214881</v>
       </c>
       <c r="J21" t="n">
-        <v>205.7279980329771</v>
+        <v>205.727998032977</v>
       </c>
       <c r="K21" t="n">
-        <v>496.3240398680471</v>
+        <v>496.324039868047</v>
       </c>
       <c r="L21" t="n">
-        <v>933.3888210494159</v>
+        <v>609.7695497250517</v>
       </c>
       <c r="M21" t="n">
-        <v>1462.779673846421</v>
+        <v>1139.160402522057</v>
       </c>
       <c r="N21" t="n">
-        <v>2020.590572181065</v>
+        <v>1696.9713008567</v>
       </c>
       <c r="O21" t="n">
         <v>2185.039500429579</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846.2979853469104</v>
+        <v>871.9488409701647</v>
       </c>
       <c r="C22" t="n">
-        <v>709.2912997444721</v>
+        <v>734.9421553677264</v>
       </c>
       <c r="D22" t="n">
-        <v>591.1041576576052</v>
+        <v>616.7550132808593</v>
       </c>
       <c r="E22" t="n">
-        <v>475.1205614006809</v>
+        <v>500.7714170239348</v>
       </c>
       <c r="F22" t="n">
-        <v>360.1601112282392</v>
+        <v>385.810966851493</v>
       </c>
       <c r="G22" t="n">
-        <v>224.6639864377003</v>
+        <v>250.314842060954</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4918416049118</v>
+        <v>138.4918416049117</v>
       </c>
       <c r="I22" t="n">
         <v>81.43225808214881</v>
       </c>
       <c r="J22" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538765</v>
       </c>
       <c r="K22" t="n">
-        <v>443.9056792595102</v>
+        <v>443.9056792595098</v>
       </c>
       <c r="L22" t="n">
-        <v>832.1536518510002</v>
+        <v>832.1536518509997</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N22" t="n">
-        <v>1664.474356830195</v>
+        <v>1664.474356830194</v>
       </c>
       <c r="O22" t="n">
-        <v>2033.501324983835</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P22" t="n">
-        <v>2330.263556663728</v>
+        <v>2330.263556663726</v>
       </c>
       <c r="Q22" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.918950693149</v>
       </c>
       <c r="R22" t="n">
-        <v>2461.918950693151</v>
+        <v>2416.482563165841</v>
       </c>
       <c r="S22" t="n">
-        <v>2306.993656702512</v>
+        <v>2261.557269175201</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.341000591675</v>
+        <v>2072.904613064365</v>
       </c>
       <c r="U22" t="n">
-        <v>1861.182751834202</v>
+        <v>1815.746364306892</v>
       </c>
       <c r="V22" t="n">
-        <v>1638.427760953783</v>
+        <v>1592.991373426473</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.940088242291</v>
+        <v>1406.590943865546</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.880034669743</v>
+        <v>1210.530890292997</v>
       </c>
       <c r="Y22" t="n">
-        <v>996.0169528516815</v>
+        <v>1021.667808474936</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,22 +5975,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,10 +5999,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
@@ -6011,13 +6011,13 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400162</v>
@@ -6060,31 +6060,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>165.6257438946547</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L24" t="n">
-        <v>326.515925275411</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857001</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6136,34 +6136,34 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6175,16 +6175,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073043</v>
@@ -6212,10 +6212,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511625</v>
@@ -6224,7 +6224,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
         <v>766.6831886951454</v>
@@ -6233,7 +6233,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
         <v>2681.771598889755</v>
@@ -6306,25 +6306,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511625</v>
@@ -6394,40 +6394,40 @@
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,52 +6449,52 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
         <v>3496.71823738206</v>
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511625</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694437</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179733</v>
+        <v>850.66941185518</v>
       </c>
       <c r="N30" t="n">
-        <v>1665.552851106135</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O30" t="n">
-        <v>2171.957806054385</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D31" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6643,10 +6643,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6658,13 +6658,13 @@
         <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162839</v>
@@ -6701,22 +6701,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767229</v>
@@ -6737,13 +6737,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6786,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
         <v>2555.644190323788</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C34" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6886,19 +6886,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6935,13 +6935,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746739</v>
@@ -6962,13 +6962,13 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
         <v>3496.71823738206</v>
@@ -7023,10 +7023,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
         <v>2555.644190323788</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502085</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477701</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609029</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315375</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749433</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897922</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076836</v>
@@ -7178,43 +7178,43 @@
         <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.13298385146</v>
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502112</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315393</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749451</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897937</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7345,37 +7345,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511598</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7424,19 +7424,19 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
         <v>4017.391409283565</v>
@@ -7482,13 +7482,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
         <v>519.5985603334505</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.862419750211</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7582,25 +7582,25 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7609,10 +7609,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7625,40 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
@@ -7667,13 +7667,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283565</v>
@@ -7719,25 +7719,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
         <v>2555.644190323788</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477704</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609032</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039786</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443611</v>
@@ -7819,37 +7819,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -10042,7 +10042,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444635</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>51.02023696482121</v>
+        <v>385.0431265889351</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292588</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>193.0139559754621</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>265.5802290184679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17.98965543945174</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>201.239718576303</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9462261850435</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>186.0669813172563</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.09919003974905</v>
+        <v>88.09919003974912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.59222600424917</v>
+        <v>76.59222600424924</v>
       </c>
       <c r="S16" t="n">
-        <v>80.91945790763003</v>
+        <v>149.0661243422784</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.3763319019425</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>177.7204377081559</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>177.7204377081569</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>70.3763707190605</v>
       </c>
       <c r="E19" t="n">
-        <v>70.37637071905775</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.63566166346867</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.7204377081563</v>
       </c>
       <c r="V20" t="n">
-        <v>114.0847760446863</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>25.39434706702131</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203521</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>70.37637071905934</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.435651928564766e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.012949724099599e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.911359959194669e-12</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900975.4082633107</v>
+        <v>900975.4082633103</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918394.5459760197</v>
+        <v>918394.5459760198</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918394.5459760196</v>
+        <v>918394.5459760197</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918394.5459760197</v>
+        <v>918394.5459760198</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>443296.228662197</v>
@@ -26329,31 +26329,31 @@
         <v>523384.023581547</v>
       </c>
       <c r="H2" t="n">
-        <v>523384.0235815472</v>
+        <v>523384.0235815469</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="J2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="K2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="L2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="M2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="O2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="P2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533677.1504117838</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533677.1504117842</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353244.2765738465</v>
+        <v>353244.2765738432</v>
       </c>
       <c r="C3" t="n">
-        <v>43511.7476181891</v>
+        <v>43511.74761819227</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.857642954</v>
       </c>
       <c r="F3" t="n">
-        <v>173736.0360376483</v>
+        <v>173736.0360376481</v>
       </c>
       <c r="G3" t="n">
         <v>25288.16188177111</v>
       </c>
       <c r="H3" t="n">
-        <v>2.110498371621361e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.89416668131</v>
+        <v>39037.89416668147</v>
       </c>
       <c r="J3" t="n">
-        <v>5970.841630864955</v>
+        <v>5970.841630864506</v>
       </c>
       <c r="K3" t="n">
-        <v>6942.380109546861</v>
+        <v>6942.380109547302</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194619</v>
+        <v>41060.1990219462</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376327</v>
+        <v>45679.31917376335</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346684.982610611</v>
+        <v>346684.9826106119</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26427,37 +26427,37 @@
         <v>15869.84275221455</v>
       </c>
       <c r="F4" t="n">
-        <v>15966.36223262895</v>
+        <v>15966.3622326289</v>
       </c>
       <c r="G4" t="n">
-        <v>47291.09393227921</v>
+        <v>47291.09393227915</v>
       </c>
       <c r="H4" t="n">
-        <v>47291.09393227926</v>
+        <v>47291.09393227917</v>
       </c>
       <c r="I4" t="n">
-        <v>47059.20276613311</v>
+        <v>47059.20276613308</v>
       </c>
       <c r="J4" t="n">
-        <v>47059.20276613311</v>
+        <v>47059.20276613307</v>
       </c>
       <c r="K4" t="n">
-        <v>47059.20276613304</v>
+        <v>47059.20276613308</v>
       </c>
       <c r="L4" t="n">
-        <v>47059.20276613308</v>
+        <v>47059.20276613306</v>
       </c>
       <c r="M4" t="n">
         <v>47059.20276613304</v>
       </c>
       <c r="N4" t="n">
-        <v>47059.20276613309</v>
+        <v>47059.20276613302</v>
       </c>
       <c r="O4" t="n">
-        <v>47059.20276613309</v>
+        <v>47059.20276613303</v>
       </c>
       <c r="P4" t="n">
-        <v>47059.2027661331</v>
+        <v>47059.20276613302</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42833.58292690802</v>
+        <v>42833.58292690785</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,7 +26476,7 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>88963.40690525342</v>
@@ -26485,16 +26485,16 @@
         <v>91620.8450068017</v>
       </c>
       <c r="H5" t="n">
-        <v>91620.84500680171</v>
+        <v>91620.8450068017</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.4341021553</v>
@@ -26503,7 +26503,7 @@
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209085.6916995812</v>
+        <v>-209085.691699579</v>
       </c>
       <c r="C6" t="n">
-        <v>111602.1773556824</v>
+        <v>111602.1773556793</v>
       </c>
       <c r="D6" t="n">
-        <v>90340.77059458906</v>
+        <v>90340.7705945893</v>
       </c>
       <c r="E6" t="n">
-        <v>-354660.8122943646</v>
+        <v>-355008.431224171</v>
       </c>
       <c r="F6" t="n">
-        <v>209133.9122668061</v>
+        <v>208957.4606015393</v>
       </c>
       <c r="G6" t="n">
-        <v>359183.9227606949</v>
+        <v>359144.3338113479</v>
       </c>
       <c r="H6" t="n">
-        <v>384472.084642466</v>
+        <v>384432.495693119</v>
       </c>
       <c r="I6" t="n">
-        <v>352473.6193768147</v>
+        <v>352473.6193768145</v>
       </c>
       <c r="J6" t="n">
-        <v>385540.6719126308</v>
+        <v>385540.6719126316</v>
       </c>
       <c r="K6" t="n">
-        <v>384569.1334339491</v>
+        <v>384569.1334339487</v>
       </c>
       <c r="L6" t="n">
-        <v>350451.3145215497</v>
+        <v>350451.3145215499</v>
       </c>
       <c r="M6" t="n">
-        <v>212261.8686051946</v>
+        <v>212261.8686051945</v>
       </c>
       <c r="N6" t="n">
-        <v>345832.1943697322</v>
+        <v>345832.1943697323</v>
       </c>
       <c r="O6" t="n">
-        <v>391511.5135434958</v>
+        <v>391511.513543496</v>
       </c>
       <c r="P6" t="n">
-        <v>391511.5135434958</v>
+        <v>391511.5135434961</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221387</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622755</v>
+        <v>358.6466858622728</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26744,7 +26744,7 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1241.967466184419</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>31.61020235221389</v>
       </c>
       <c r="H2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622755</v>
+        <v>358.6466858622728</v>
       </c>
       <c r="C3" t="n">
-        <v>38.2132574052925</v>
+        <v>38.21325740529528</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.660949394796</v>
+        <v>613.6609493947963</v>
       </c>
       <c r="F3" t="n">
-        <v>152.1907655911209</v>
+        <v>152.1907655911207</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.19240443570357</v>
+        <v>36.19240443570379</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97452717333492</v>
+        <v>26.97452717333686</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
@@ -27021,7 +27021,7 @@
         <v>719.2887952773692</v>
       </c>
       <c r="F4" t="n">
-        <v>186.501770624567</v>
+        <v>186.5017706245671</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.35188616209302</v>
+        <v>44.3518861620928</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333492</v>
+        <v>26.97452717333663</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779902</v>
+        <v>62.31765309779925</v>
       </c>
       <c r="M4" t="n">
         <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245668</v>
+        <v>186.5017706245671</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221389</v>
       </c>
       <c r="M2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333492</v>
+        <v>26.97452717333686</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
@@ -27267,7 +27267,7 @@
         <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>186.501770624567</v>
+        <v>186.5017706245671</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27394,19 +27394,19 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.7090116772263</v>
+        <v>324.7090116772264</v>
       </c>
       <c r="I2" t="n">
-        <v>154.8910599957109</v>
+        <v>154.8910599957113</v>
       </c>
       <c r="J2" t="n">
-        <v>58.67529486154733</v>
+        <v>58.67529486154828</v>
       </c>
       <c r="K2" t="n">
-        <v>13.86754861127754</v>
+        <v>36.68802846506867</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.240236561100346</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18.39310061141793</v>
+        <v>10.15286405032466</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.60797209390756</v>
+        <v>43.787492240121</v>
       </c>
       <c r="R2" t="n">
-        <v>125.0173372883184</v>
+        <v>125.0173372883191</v>
       </c>
       <c r="S2" t="n">
-        <v>176.1651495698168</v>
+        <v>176.165149569817</v>
       </c>
       <c r="T2" t="n">
-        <v>216.7843887908163</v>
+        <v>216.7843887908164</v>
       </c>
       <c r="U2" t="n">
         <v>251.2303092500717</v>
@@ -27464,25 +27464,25 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>137.5448018001847</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5720884426767</v>
+        <v>113.7516085888889</v>
       </c>
       <c r="H3" t="n">
-        <v>104.7850668566028</v>
+        <v>81.96458700281507</v>
       </c>
       <c r="I3" t="n">
-        <v>72.96222449038808</v>
+        <v>50.14174463660052</v>
       </c>
       <c r="J3" t="n">
-        <v>31.13405001892152</v>
+        <v>53.9545298727118</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.27261790462977</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.68909474793305</v>
+        <v>41.50957460172351</v>
       </c>
       <c r="R3" t="n">
-        <v>74.9627742510575</v>
+        <v>97.78325410484757</v>
       </c>
       <c r="S3" t="n">
-        <v>157.3542209658497</v>
+        <v>157.3542209658499</v>
       </c>
       <c r="T3" t="n">
         <v>197.0553295975817</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.8673224103304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27555,34 +27555,34 @@
         <v>156.47706662591</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0012415365631</v>
+        <v>136.0012415365632</v>
       </c>
       <c r="J4" t="n">
-        <v>81.27090871888927</v>
+        <v>81.27090871888964</v>
       </c>
       <c r="K4" t="n">
-        <v>53.87383775545538</v>
+        <v>53.87383775545597</v>
       </c>
       <c r="L4" t="n">
-        <v>38.73208774694886</v>
+        <v>38.73208774694962</v>
       </c>
       <c r="M4" t="n">
-        <v>37.54636092591299</v>
+        <v>37.54636092591377</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71669752884486</v>
+        <v>28.71669752884564</v>
       </c>
       <c r="O4" t="n">
-        <v>47.04278973402866</v>
+        <v>47.04278973402937</v>
       </c>
       <c r="P4" t="n">
-        <v>59.50774980797202</v>
+        <v>59.50774980797263</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.34935206424224</v>
+        <v>97.34935206424265</v>
       </c>
       <c r="R4" t="n">
-        <v>148.2136125529922</v>
+        <v>148.2136125529924</v>
       </c>
       <c r="S4" t="n">
         <v>212.7456849747103</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>374.1896838787522</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>363.9123136306534</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27640,7 +27640,7 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,16 +27655,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
         <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
-        <v>115.3674336481769</v>
+        <v>65.57242662105223</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6645079492214</v>
+        <v>141.6046111135509</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>141.1970902293412</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>95.27420536625925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -27713,10 +27713,10 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>20.3372734007017</v>
+        <v>20.33727340070169</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>106.0324861546552</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>192.9310549409576</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>320.8931526811482</v>
       </c>
       <c r="F8" t="n">
-        <v>325.5740782643986</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27910,7 +27910,7 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452113</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3324054397151</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>47.09833821885995</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>30.08282103867671</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27986,13 +27986,13 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V9" t="n">
-        <v>143.308314887214</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28035,13 +28035,13 @@
         <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>25.63772821752104</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
         <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>0.7157523946084789</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I17" t="n">
         <v>17.98965543945181</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
-        <v>17.98965543945178</v>
+        <v>17.98965543945181</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221355</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.441795722059398</v>
+        <v>1.441795722059387</v>
       </c>
       <c r="H2" t="n">
-        <v>14.76579043854082</v>
+        <v>14.7657904385407</v>
       </c>
       <c r="I2" t="n">
-        <v>55.584829574695</v>
+        <v>55.58482957469457</v>
       </c>
       <c r="J2" t="n">
-        <v>122.370609665139</v>
+        <v>122.370609665138</v>
       </c>
       <c r="K2" t="n">
-        <v>183.4018225799133</v>
+        <v>183.4018225799119</v>
       </c>
       <c r="L2" t="n">
-        <v>227.5261784088887</v>
+        <v>227.5261784088869</v>
       </c>
       <c r="M2" t="n">
-        <v>253.1667130810625</v>
+        <v>253.1667130810605</v>
       </c>
       <c r="N2" t="n">
-        <v>252.2335434503806</v>
+        <v>252.2335434503787</v>
       </c>
       <c r="O2" t="n">
-        <v>242.9263589651356</v>
+        <v>242.9263589651337</v>
       </c>
       <c r="P2" t="n">
-        <v>207.3320270767942</v>
+        <v>207.3320270767926</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.6977177805419</v>
+        <v>155.6977177805407</v>
       </c>
       <c r="R2" t="n">
-        <v>90.56820052581375</v>
+        <v>90.56820052581304</v>
       </c>
       <c r="S2" t="n">
-        <v>32.85492001642857</v>
+        <v>32.85492001642831</v>
       </c>
       <c r="T2" t="n">
-        <v>6.311460773315019</v>
+        <v>6.31146077331497</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1153436577647518</v>
+        <v>0.1153436577647509</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7714287205339512</v>
+        <v>0.7714287205339452</v>
       </c>
       <c r="H3" t="n">
-        <v>7.450377379893688</v>
+        <v>7.45037737989363</v>
       </c>
       <c r="I3" t="n">
-        <v>26.56015550961192</v>
+        <v>26.56015550961171</v>
       </c>
       <c r="J3" t="n">
-        <v>72.88309679395546</v>
+        <v>72.88309679395489</v>
       </c>
       <c r="K3" t="n">
-        <v>124.5688210697302</v>
+        <v>124.5688210697292</v>
       </c>
       <c r="L3" t="n">
-        <v>147.1181764289632</v>
+        <v>160.4528200436099</v>
       </c>
       <c r="M3" t="n">
-        <v>164.954513775808</v>
+        <v>164.9545137758061</v>
       </c>
       <c r="N3" t="n">
-        <v>154.162191937123</v>
+        <v>154.1621919371211</v>
       </c>
       <c r="O3" t="n">
-        <v>165.4167242982342</v>
+        <v>165.4167242982322</v>
       </c>
       <c r="P3" t="n">
-        <v>147.3090510289788</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.47219948429876</v>
+        <v>98.472199484298</v>
       </c>
       <c r="R3" t="n">
-        <v>47.89624985911674</v>
+        <v>47.89624985911637</v>
       </c>
       <c r="S3" t="n">
-        <v>14.32895013798808</v>
+        <v>14.32895013798796</v>
       </c>
       <c r="T3" t="n">
-        <v>3.109399097239916</v>
+        <v>3.109399097239892</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0507518895088126</v>
+        <v>0.0507518895088122</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6467399253254148</v>
+        <v>0.6467399253254098</v>
       </c>
       <c r="H4" t="n">
-        <v>5.750105881529602</v>
+        <v>5.750105881529557</v>
       </c>
       <c r="I4" t="n">
-        <v>19.44923339069521</v>
+        <v>19.44923339069506</v>
       </c>
       <c r="J4" t="n">
-        <v>45.72451272050683</v>
+        <v>45.72451272050647</v>
       </c>
       <c r="K4" t="n">
-        <v>75.13942041508</v>
+        <v>75.13942041507941</v>
       </c>
       <c r="L4" t="n">
-        <v>96.15258853428942</v>
+        <v>96.15258853428867</v>
       </c>
       <c r="M4" t="n">
-        <v>101.3794230216921</v>
+        <v>101.3794230216913</v>
       </c>
       <c r="N4" t="n">
-        <v>98.96884693638833</v>
+        <v>98.96884693638755</v>
       </c>
       <c r="O4" t="n">
-        <v>91.41374871781413</v>
+        <v>91.41374871781342</v>
       </c>
       <c r="P4" t="n">
-        <v>78.2202542411756</v>
+        <v>78.22025424117498</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.1556495652036</v>
+        <v>54.15564956520318</v>
       </c>
       <c r="R4" t="n">
-        <v>29.07977882417728</v>
+        <v>29.07977882417705</v>
       </c>
       <c r="S4" t="n">
-        <v>11.270913062262</v>
+        <v>11.27091306226191</v>
       </c>
       <c r="T4" t="n">
-        <v>2.763343317299499</v>
+        <v>2.763343317299478</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03527672319956812</v>
+        <v>0.03527672319956785</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31376,13 +31376,13 @@
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31604,10 +31604,10 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>195.603766958386</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
         <v>254.246694046942</v>
@@ -31619,7 +31619,7 @@
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.2741087697571</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>431.3727943633185</v>
       </c>
       <c r="L15" t="n">
         <v>580.0339567307517</v>
@@ -32087,7 +32087,7 @@
         <v>676.8722690705084</v>
       </c>
       <c r="N15" t="n">
-        <v>694.7870639365083</v>
+        <v>493.4501635591994</v>
       </c>
       <c r="O15" t="n">
         <v>635.5944258311905</v>
@@ -32096,7 +32096,7 @@
         <v>510.1205617239363</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.1762290976723</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32321,7 +32321,7 @@
         <v>580.0339567307517</v>
       </c>
       <c r="M18" t="n">
-        <v>349.9841162176153</v>
+        <v>676.8722690705084</v>
       </c>
       <c r="N18" t="n">
         <v>694.7870639365083</v>
@@ -32330,7 +32330,7 @@
         <v>635.5944258311905</v>
       </c>
       <c r="P18" t="n">
-        <v>510.1205617239363</v>
+        <v>183.2324088710433</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.992834034912235</v>
+        <v>4.992834034912234</v>
       </c>
       <c r="H20" t="n">
-        <v>51.13286156004494</v>
+        <v>51.13286156004493</v>
       </c>
       <c r="I20" t="n">
         <v>192.4862341309541</v>
       </c>
       <c r="J20" t="n">
-        <v>423.7605476706327</v>
+        <v>423.7605476706326</v>
       </c>
       <c r="K20" t="n">
-        <v>635.1072123684677</v>
+        <v>635.1072123684676</v>
       </c>
       <c r="L20" t="n">
-        <v>787.9066569644132</v>
+        <v>787.9066569644131</v>
       </c>
       <c r="M20" t="n">
-        <v>876.6979692327836</v>
+        <v>876.6979692327835</v>
       </c>
       <c r="N20" t="n">
-        <v>890.8838589344781</v>
+        <v>890.883858934478</v>
       </c>
       <c r="O20" t="n">
-        <v>841.2363654998195</v>
+        <v>841.2363654998194</v>
       </c>
       <c r="P20" t="n">
-        <v>717.9757752629235</v>
+        <v>717.9757752629234</v>
       </c>
       <c r="Q20" t="n">
-        <v>539.169906387629</v>
+        <v>539.1699063876289</v>
       </c>
       <c r="R20" t="n">
-        <v>313.631110945556</v>
+        <v>313.6311109455559</v>
       </c>
       <c r="S20" t="n">
         <v>113.7742055705627</v>
@@ -32503,7 +32503,7 @@
         <v>21.85613098782832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3994267227929788</v>
+        <v>0.3994267227929786</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>2.67140171971743</v>
       </c>
       <c r="H21" t="n">
-        <v>25.80011660884993</v>
+        <v>25.80011660884992</v>
       </c>
       <c r="I21" t="n">
-        <v>91.97589254290277</v>
+        <v>91.97589254290276</v>
       </c>
       <c r="J21" t="n">
-        <v>252.3888791422508</v>
+        <v>252.3888791422507</v>
       </c>
       <c r="K21" t="n">
-        <v>431.3727943633186</v>
+        <v>431.3727943633185</v>
       </c>
       <c r="L21" t="n">
-        <v>580.0339567307518</v>
+        <v>253.1458038778587</v>
       </c>
       <c r="M21" t="n">
-        <v>676.8722690705085</v>
+        <v>676.8722690705084</v>
       </c>
       <c r="N21" t="n">
-        <v>694.7870639365084</v>
+        <v>694.7870639365083</v>
       </c>
       <c r="O21" t="n">
-        <v>308.7062729782972</v>
+        <v>635.5944258311905</v>
       </c>
       <c r="P21" t="n">
-        <v>510.1205617239364</v>
+        <v>510.1205617239363</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>49.62011527633031</v>
+        <v>49.6201152763303</v>
       </c>
       <c r="T21" t="n">
-        <v>10.76762359833473</v>
+        <v>10.76762359833472</v>
       </c>
       <c r="U21" t="n">
         <v>0.1757501131393047</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.239613463611248</v>
+        <v>2.239613463611247</v>
       </c>
       <c r="H22" t="n">
-        <v>19.91219970374366</v>
+        <v>19.91219970374365</v>
       </c>
       <c r="I22" t="n">
-        <v>67.35128488750918</v>
+        <v>67.35128488750917</v>
       </c>
       <c r="J22" t="n">
         <v>158.3406718773152</v>
@@ -32637,28 +32637,28 @@
         <v>332.9694416718032</v>
       </c>
       <c r="M22" t="n">
-        <v>351.0695904822613</v>
+        <v>351.0695904822612</v>
       </c>
       <c r="N22" t="n">
-        <v>342.7219402997106</v>
+        <v>342.7219402997105</v>
       </c>
       <c r="O22" t="n">
-        <v>316.5591830202518</v>
+        <v>316.5591830202517</v>
       </c>
       <c r="P22" t="n">
-        <v>270.8710683625821</v>
+        <v>270.871068362582</v>
       </c>
       <c r="Q22" t="n">
         <v>187.5370873938473</v>
       </c>
       <c r="R22" t="n">
-        <v>100.7011653729203</v>
+        <v>100.7011653729202</v>
       </c>
       <c r="S22" t="n">
         <v>39.03035463402509</v>
       </c>
       <c r="T22" t="n">
-        <v>9.569257526338966</v>
+        <v>9.569257526338964</v>
       </c>
       <c r="U22" t="n">
         <v>0.1221607343787955</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>208.2975609288268</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
         <v>696.597129487967</v>
@@ -32804,10 +32804,10 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,13 +33026,13 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>223.8954149958791</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N27" t="n">
         <v>715.033982716063</v>
@@ -33041,13 +33041,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33260,13 +33260,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>223.8954149958792</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>696.597129487967</v>
@@ -33278,13 +33278,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>521.5364117268584</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33506,13 +33506,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33743,13 +33743,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N36" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33974,28 +33974,28 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>223.8954149958792</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34369,7 +34369,7 @@
         <v>436.1094324383706</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L44" t="n">
         <v>810.8671910869753</v>
@@ -34448,7 +34448,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>392.4972796419682</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
@@ -34460,7 +34460,7 @@
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="N2" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="O2" t="n">
-        <v>12.82814754344886</v>
+        <v>12.82814754344699</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8.563796649089033</v>
+        <v>21.89844026373574</v>
       </c>
       <c r="M3" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="N3" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="O3" t="n">
-        <v>22.82047985378971</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="P3" t="n">
-        <v>13.33464361464857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>57.04938717851184</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
         <v>112.1126601249237</v>
@@ -35267,7 +35267,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426831</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130663</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>293.5313553889595</v>
       </c>
       <c r="L15" t="n">
         <v>441.4795769508775</v>
@@ -35735,7 +35735,7 @@
         <v>534.73823514849</v>
       </c>
       <c r="N15" t="n">
-        <v>563.445351853175</v>
+        <v>362.1084514758661</v>
       </c>
       <c r="O15" t="n">
         <v>492.9981813867461</v>
@@ -35744,7 +35744,7 @@
         <v>376.1461543096061</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.19445501165075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.9814917606425</v>
+        <v>64.98149176064243</v>
       </c>
       <c r="K16" t="n">
-        <v>237.9328724009512</v>
+        <v>237.9328724009511</v>
       </c>
       <c r="L16" t="n">
-        <v>360.5594669321194</v>
+        <v>360.5594669321193</v>
       </c>
       <c r="M16" t="n">
         <v>390.6534674441018</v>
       </c>
       <c r="N16" t="n">
-        <v>386.8541126789392</v>
+        <v>386.8541126789391</v>
       </c>
       <c r="O16" t="n">
-        <v>341.1443109342915</v>
+        <v>341.1443109342914</v>
       </c>
       <c r="P16" t="n">
-        <v>268.1496276274756</v>
+        <v>268.1496276274755</v>
       </c>
       <c r="Q16" t="n">
         <v>101.3750441421529</v>
@@ -35969,7 +35969,7 @@
         <v>441.4795769508775</v>
       </c>
       <c r="M18" t="n">
-        <v>207.850082295597</v>
+        <v>534.73823514849</v>
       </c>
       <c r="N18" t="n">
         <v>563.445351853175</v>
@@ -35978,7 +35978,7 @@
         <v>492.9981813867461</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1461543096061</v>
+        <v>49.25800145671304</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.59169411285639</v>
+        <v>96.59169411285632</v>
       </c>
       <c r="K19" t="n">
-        <v>269.5430747531651</v>
+        <v>269.543074753165</v>
       </c>
       <c r="L19" t="n">
-        <v>392.1696692843333</v>
+        <v>392.1696692843332</v>
       </c>
       <c r="M19" t="n">
-        <v>422.2636697963158</v>
+        <v>422.2636697963157</v>
       </c>
       <c r="N19" t="n">
-        <v>418.4643150311531</v>
+        <v>418.464315031153</v>
       </c>
       <c r="O19" t="n">
-        <v>372.7545132865054</v>
+        <v>372.7545132865053</v>
       </c>
       <c r="P19" t="n">
-        <v>299.7598299796895</v>
+        <v>299.7598299796894</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>242.7146431439464</v>
+        <v>242.7146431439463</v>
       </c>
       <c r="K20" t="n">
-        <v>415.0173613234871</v>
+        <v>415.017361323487</v>
       </c>
       <c r="L20" t="n">
         <v>552.1402419944259</v>
       </c>
       <c r="M20" t="n">
-        <v>646.3517360055109</v>
+        <v>646.3517360055108</v>
       </c>
       <c r="N20" t="n">
-        <v>661.4707953378872</v>
+        <v>661.470795337887</v>
       </c>
       <c r="O20" t="n">
-        <v>611.1381540781327</v>
+        <v>611.1381540781326</v>
       </c>
       <c r="P20" t="n">
-        <v>486.742779507654</v>
+        <v>486.7427795076539</v>
       </c>
       <c r="Q20" t="n">
-        <v>316.8642165131795</v>
+        <v>316.8642165131794</v>
       </c>
       <c r="R20" t="n">
-        <v>98.04557313142385</v>
+        <v>98.04557313142379</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>125.5512524755841</v>
       </c>
       <c r="K21" t="n">
-        <v>293.5313553889596</v>
+        <v>293.5313553889595</v>
       </c>
       <c r="L21" t="n">
-        <v>441.4795769508776</v>
+        <v>114.5914240979846</v>
       </c>
       <c r="M21" t="n">
-        <v>534.7382351484903</v>
+        <v>534.73823514849</v>
       </c>
       <c r="N21" t="n">
-        <v>563.4453518531751</v>
+        <v>563.445351853175</v>
       </c>
       <c r="O21" t="n">
-        <v>166.1100285338528</v>
+        <v>492.9981813867461</v>
       </c>
       <c r="P21" t="n">
-        <v>376.1461543096062</v>
+        <v>376.1461543096061</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.59169411285646</v>
+        <v>96.59169411285635</v>
       </c>
       <c r="K22" t="n">
         <v>269.5430747531651</v>
       </c>
       <c r="L22" t="n">
-        <v>392.1696692843333</v>
+        <v>392.1696692843332</v>
       </c>
       <c r="M22" t="n">
-        <v>422.2636697963159</v>
+        <v>422.2636697963157</v>
       </c>
       <c r="N22" t="n">
-        <v>418.4643150311532</v>
+        <v>418.464315031153</v>
       </c>
       <c r="O22" t="n">
-        <v>372.7545132865055</v>
+        <v>372.7545132865053</v>
       </c>
       <c r="P22" t="n">
-        <v>299.7598299796896</v>
+        <v>299.7598299796894</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>81.45993426216009</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36452,10 +36452,10 @@
         <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36674,13 +36674,13 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>86.0539760215201</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327297</v>
@@ -36689,13 +36689,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010925</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>86.05397602152016</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36926,13 +36926,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817348</v>
@@ -37154,13 +37154,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>86.05397602152016</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O39" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37938,25 +37938,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
@@ -38096,7 +38096,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>254.6558406676093</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
@@ -38108,7 +38108,7 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
